--- a/data/post_external/discarded_external_suggestions.xlsx
+++ b/data/post_external/discarded_external_suggestions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,67 +1048,67 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Services numériques et activités connexes</t>
+          <t>Conseil, Expertise et formation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>e-commerce</t>
+          <t>Formateur QHSE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
+          <t>Formateur QHSE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>e-commerce-Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
+          <t>Formateur QHSE-Formateur QHSE</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Conseil, Expertise et formation</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Formateur QHSE</t>
+          <t>مكوّن نظري و تطبيقي</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
-        <is>
-          <t>Formateur QHSE</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Formateur QHSE-Formateur QHSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>مكوّن نظري و تطبيقي</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>مكوّن نظري و تطبيقي-تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة التتبع والتموقع</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
+        </is>
+      </c>
+    </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
@@ -1117,37 +1117,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>تركيب اجهزة التتبع والتموقع</t>
+          <t>Relation et partenariats</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
+          <t>Service relationnel et partenariats en entreprises</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Relation et partenariats</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Service relationnel et partenariats en entreprises</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
         <is>
           <t>Relation et partenariats-Service relationnel et partenariats en entreprises</t>
         </is>

--- a/data/post_external/discarded_external_suggestions.xlsx
+++ b/data/post_external/discarded_external_suggestions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>concatenated</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sum_similarity</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -475,6 +480,9 @@
         <is>
           <t>مختص في تربية النحل-تقديم دورات مصورة عن بعد ودورات ميدانية في مجال تربية النحل وتقنيات تربية الملكات وانتاج الغذاء الملكي ومختلف منتجات الخلية</t>
         </is>
+      </c>
+      <c r="E2" t="n">
+        <v>303.0029907226562</v>
       </c>
     </row>
     <row r="3">
@@ -502,6 +510,9 @@
 Entretien d’embauche.. etc</t>
         </is>
       </c>
+      <c r="E3" t="n">
+        <v>286.2215881347656</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -524,6 +535,9 @@
           <t>Modification des phares automobiles-تعديل أضواء السيارات</t>
         </is>
       </c>
+      <c r="E4" t="n">
+        <v>254.8026275634766</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -546,6 +560,9 @@
           <t>Expert en développement des compétences-Proposer aux professionnels un un plan de développement des compétences métiers</t>
         </is>
       </c>
+      <c r="E5" t="n">
+        <v>404.4586791992188</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -568,6 +585,9 @@
           <t>plateforme micro service-امتلاك منصة اعمال حرة مثل فايفر هيا انك تفت منصو تعطي فلرصة لناس تمار نشاطها الداخل في كل تعامل بين عامل وعميل تاخذ ارباح او تعطي لناس باقات يشتركون فيها لكي تسمح لهم بانشاء حساب و العمل</t>
         </is>
       </c>
+      <c r="E6" t="n">
+        <v>313.9600219726562</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -589,6 +609,9 @@
         <is>
           <t>تجارة-ماركت ملابس بمواصفات عالمية</t>
         </is>
+      </c>
+      <c r="E7" t="n">
+        <v>189.0453796386719</v>
       </c>
     </row>
     <row r="8">
@@ -608,6 +631,9 @@
           <t>بائع مجوهرات-بيع وإصلاح المجوهرات الذهبية</t>
         </is>
       </c>
+      <c r="E8" t="n">
+        <v>317.4661254882812</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -630,6 +656,9 @@
           <t>رسكلة البلاستيك-جمع البلاستيك واخذه إلى المصنع لاعادة تحويله</t>
         </is>
       </c>
+      <c r="E9" t="n">
+        <v>325.6465759277344</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -652,6 +681,9 @@
           <t>كلونديستان-تقنين عمل نقل الأشخاص</t>
         </is>
       </c>
+      <c r="E10" t="n">
+        <v>386.7401123046875</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -673,6 +705,9 @@
         <is>
           <t>روضة-رعاية الأطفال</t>
         </is>
+      </c>
+      <c r="E11" t="n">
+        <v>246.1429901123047</v>
       </c>
     </row>
     <row r="12">
@@ -691,6 +726,9 @@
         <is>
           <t>Supports automatisés, ses accessoires et fournitures téléphoniques-Supports automatisés, ses accessoires et fournitures téléphoniques</t>
         </is>
+      </c>
+      <c r="E12" t="n">
+        <v>377.8314819335938</v>
       </c>
     </row>
     <row r="13">
@@ -722,6 +760,9 @@
 La veille technologique et l’innovation</t>
         </is>
       </c>
+      <c r="E13" t="n">
+        <v>403.0617370605469</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -746,6 +787,9 @@
 maintenance informatique</t>
         </is>
       </c>
+      <c r="E14" t="n">
+        <v>413.552978515625</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -768,6 +812,9 @@
           <t>Sérigraphie-Impression sérigraphie sur tout support tissus plastique verres bois papier.</t>
         </is>
       </c>
+      <c r="E15" t="n">
+        <v>254.2793426513672</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -790,6 +837,9 @@
           <t>التصدير-التصدير في كل المجالات</t>
         </is>
       </c>
+      <c r="E16" t="n">
+        <v>241.3108215332031</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -811,6 +861,9 @@
         <is>
           <t>طباعة مختلف الوثائق وتصميم بطاقات شخصية-مجال الاعلام الآلي بمختلف الأنواع</t>
         </is>
+      </c>
+      <c r="E17" t="n">
+        <v>386.1470031738281</v>
       </c>
     </row>
     <row r="18">
@@ -830,6 +883,9 @@
           <t>Calligraphe-Art de former d'une façon élégante et ornée les caractères de l'écriture ; écriture formée selon cet art.</t>
         </is>
       </c>
+      <c r="E18" t="n">
+        <v>278.051513671875</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -851,6 +907,9 @@
         <is>
           <t>تصليح العجلات-تصليح العجلات</t>
         </is>
+      </c>
+      <c r="E19" t="n">
+        <v>321.4901428222656</v>
       </c>
     </row>
     <row r="20">
@@ -871,6 +930,9 @@
           <t>agence de publicite-poseur dautocollant _x000D_
 publicite au lieu de vente</t>
         </is>
+      </c>
+      <c r="E20" t="n">
+        <v>340.4355773925781</v>
       </c>
     </row>
     <row r="21">
@@ -912,6 +974,9 @@
 Merci</t>
         </is>
       </c>
+      <c r="E21" t="n">
+        <v>373.4578857421875</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -934,6 +999,9 @@
           <t>Bureau d'affaire-Bureau d'affaire</t>
         </is>
       </c>
+      <c r="E22" t="n">
+        <v>492.8976440429688</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -956,6 +1024,9 @@
           <t>Conseiller en finances d'entreprises-Conseilles et analyses aux entreprises dans le domaine des analyses et choix financiers.</t>
         </is>
       </c>
+      <c r="E23" t="n">
+        <v>250.09716796875</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -978,6 +1049,9 @@
           <t>تركيب وصيانة  الطاقة الشمسية-تركيب الطاقة الشمسية</t>
         </is>
       </c>
+      <c r="E24" t="n">
+        <v>303.3478698730469</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1000,6 +1074,9 @@
           <t>ساىق vtc-ساىق تطبيقات الكترونية</t>
         </is>
       </c>
+      <c r="E25" t="n">
+        <v>529.613037109375</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1022,6 +1099,9 @@
           <t>بيع العتاد الكهربائي و الصناعي-بيع منتجات كهربائية وصناعية للمؤسسات</t>
         </is>
       </c>
+      <c r="E26" t="n">
+        <v>352.9806518554688</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1044,69 +1124,81 @@
           <t>التكييف و. التبريد-Montage et réparation climatisation on général</t>
         </is>
       </c>
+      <c r="E27" t="n">
+        <v>364.1906433105469</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Services numériques et activités connexes</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>e-commerce</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>e-commerce-Assurer la vente de produits nécessaire aux citoyens algériens, Faciliter le processus d'achat en proposant des services dédiés dans la matière, afin d'assurer la satisfaction complète du citoyen algérien.</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>185.6501770019531</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Conseil, Expertise et formation</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Formateur QHSE</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Formateur QHSE</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Formateur QHSE-Formateur QHSE</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>380.7134399414062</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
         <is>
           <t>مكوّن نظري و تطبيقي</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>مكوّن نظري و تطبيقي-تعريف : هو الشخص الذي يقدم دورات تكوينيّة نظرية و دورات _x000D_
 تطبيقية؛ مثلا في دورات الفوكاليز و دورات المقامات الموسيقية</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Services aux entreprises</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>تركيب اجهزة التتبع والتموقع</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
-        </is>
+      <c r="E30" t="n">
+        <v>446.8851013183594</v>
       </c>
     </row>
     <row r="31">
@@ -1117,18 +1209,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>تركيب اجهزة التتبع والتموقع</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة تتبع السيارات و الشاحنات</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>تركيب اجهزة التتبع والتموقع-تركيب اجهزة تتبع السيارات و الشاحنات</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>457.6104125976562</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Services aux entreprises</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Relation et partenariats</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Service relationnel et partenariats en entreprises</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Relation et partenariats-Service relationnel et partenariats en entreprises</t>
         </is>
+      </c>
+      <c r="E32" t="n">
+        <v>286.5138244628906</v>
       </c>
     </row>
   </sheetData>
